--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/204155.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/204155.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="2" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="2" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,22 +1744,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="2" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1871,25 +1871,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>0</v>
@@ -2264,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="2" t="n">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2385,28 +2385,28 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W16" s="2" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="2" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="2" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ16" s="2" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="2" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2645,28 +2645,28 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>0</v>
@@ -2784,22 +2784,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18" s="2" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="2" t="n">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ18" s="2" t="n">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="2" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2893,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2911,22 +2911,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ19" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3038,28 +3038,28 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="2" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="2" t="n">
         <v>0</v>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ20" s="2" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="2" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3165,28 +3165,28 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -3213,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3298,28 +3298,28 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="2" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ22" s="2" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="2" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3419,34 +3419,34 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3558,28 +3558,28 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W24" s="2" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="2" t="n">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="2" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3679,34 +3679,34 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3730,13 +3730,13 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W26" s="2" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="2" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="2" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -3990,13 +3990,13 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -4005,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>1</v>
@@ -4078,28 +4078,28 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W28" s="2" t="n">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="2" t="n">
         <v>0</v>
@@ -4138,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="2" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>1</v>
@@ -4211,28 +4211,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W29" s="2" t="n">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="2" t="n">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="2" t="n">
         <v>0</v>
@@ -4271,16 +4271,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="2" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -4338,28 +4338,28 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -4374,22 +4374,22 @@
         <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="n">
         <v>1</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
@@ -4398,16 +4398,16 @@
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>1</v>
@@ -4471,31 +4471,31 @@
         <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="2" t="n">
         <v>0</v>
@@ -4507,13 +4507,13 @@
         <v>1</v>
       </c>
       <c r="AA31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="2" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="2" t="n">
         <v>0</v>
@@ -4531,16 +4531,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="2" t="inlineStr">
         <is>
@@ -4574,16 +4574,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -4598,31 +4598,31 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -4634,13 +4634,13 @@
         <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
         <v>1</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
@@ -4658,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="n">
         <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>1</v>
@@ -4731,31 +4731,31 @@
         <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="2" t="n">
         <v>0</v>
@@ -4767,13 +4767,13 @@
         <v>1</v>
       </c>
       <c r="AA33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="2" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="2" t="n">
         <v>0</v>
@@ -4791,16 +4791,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="2" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -4858,31 +4858,31 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -4894,13 +4894,13 @@
         <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -4918,16 +4918,16 @@
         <v>1</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
         <v>1</v>
       </c>
       <c r="AL34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
@@ -4961,13 +4961,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>1</v>
@@ -4991,31 +4991,31 @@
         <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="2" t="n">
         <v>0</v>
@@ -5027,13 +5027,13 @@
         <v>1</v>
       </c>
       <c r="AA35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="2" t="n">
         <v>0</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="2" t="n">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ35" s="2" t="n">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="AL35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="2" t="inlineStr">
         <is>
@@ -5088,13 +5088,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -5118,31 +5118,31 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -5154,31 +5154,31 @@
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
         <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ36" t="n">
         <v>1</v>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="AL36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
@@ -5221,22 +5221,22 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>1</v>
@@ -5251,31 +5251,31 @@
         <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="2" t="n">
         <v>0</v>
@@ -5287,22 +5287,22 @@
         <v>1</v>
       </c>
       <c r="AA37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF37" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="2" t="n">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ37" s="2" t="n">
         <v>1</v>
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="AL37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="2" t="inlineStr">
         <is>
@@ -5348,22 +5348,22 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -5372,37 +5372,37 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -5414,22 +5414,22 @@
         <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
         <v>1</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ38" t="n">
         <v>1</v>
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="AL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
@@ -5481,22 +5481,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>1</v>
@@ -5508,37 +5508,37 @@
         <v>0</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="2" t="n">
         <v>0</v>
@@ -5547,22 +5547,22 @@
         <v>1</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF39" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="2" t="n">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ39" s="2" t="n">
         <v>1</v>
@@ -5580,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="AL39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="2" t="inlineStr">
         <is>
@@ -5608,22 +5608,22 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -5635,37 +5635,37 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -5674,22 +5674,22 @@
         <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
         <v>1</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ40" t="n">
         <v>1</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="AL40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
@@ -5741,22 +5741,22 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>1</v>
@@ -5768,37 +5768,37 @@
         <v>0</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="2" t="n">
         <v>0</v>
@@ -5807,31 +5807,31 @@
         <v>1</v>
       </c>
       <c r="AA41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF41" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ41" s="2" t="n">
         <v>1</v>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="AL41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="2" t="inlineStr">
         <is>
@@ -5871,25 +5871,25 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1</v>
@@ -5901,37 +5901,37 @@
         <v>0</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="2" t="n">
         <v>0</v>
@@ -5940,31 +5940,31 @@
         <v>1</v>
       </c>
       <c r="AA42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ42" s="2" t="n">
         <v>1</v>
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="AL42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="2" t="inlineStr">
         <is>
@@ -6004,25 +6004,25 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1</v>
@@ -6034,37 +6034,37 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2" t="n">
         <v>0</v>
@@ -6073,31 +6073,31 @@
         <v>1</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF43" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ43" s="2" t="n">
         <v>1</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="2" t="inlineStr">
         <is>
@@ -6137,25 +6137,25 @@
         <v>0</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>1</v>
@@ -6167,37 +6167,37 @@
         <v>0</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="2" t="n">
         <v>0</v>
@@ -6206,31 +6206,31 @@
         <v>1</v>
       </c>
       <c r="AA44" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF44" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ44" s="2" t="n">
         <v>1</v>
@@ -6239,7 +6239,7 @@
         <v>2</v>
       </c>
       <c r="AL44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="2" t="inlineStr">
         <is>
@@ -6270,25 +6270,25 @@
         <v>0</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>1</v>
@@ -6300,37 +6300,37 @@
         <v>0</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="2" t="n">
         <v>0</v>
@@ -6339,40 +6339,40 @@
         <v>1</v>
       </c>
       <c r="AA45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF45" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK45" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="2" t="inlineStr">
         <is>
@@ -6403,25 +6403,25 @@
         <v>0</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -6436,34 +6436,34 @@
         <v>1</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="2" t="n">
         <v>0</v>
@@ -6472,40 +6472,40 @@
         <v>1</v>
       </c>
       <c r="AA46" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF46" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI46" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ46" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK46" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="2" t="inlineStr">
         <is>
@@ -6536,25 +6536,25 @@
         <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1</v>
@@ -6566,37 +6566,37 @@
         <v>0</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="2" t="n">
         <v>0</v>
@@ -6605,40 +6605,40 @@
         <v>1</v>
       </c>
       <c r="AA47" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF47" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK47" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="2" t="inlineStr">
         <is>
@@ -6669,25 +6669,25 @@
         <v>0</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1</v>
@@ -6699,37 +6699,37 @@
         <v>0</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="2" t="n">
         <v>0</v>
@@ -6738,40 +6738,40 @@
         <v>1</v>
       </c>
       <c r="AA48" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF48" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ48" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK48" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="2" t="inlineStr">
         <is>
@@ -6796,16 +6796,16 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -6814,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -6826,37 +6826,37 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
         <v>0</v>
@@ -6865,40 +6865,40 @@
         <v>1</v>
       </c>
       <c r="AA49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB49" t="n">
         <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG49" t="n">
         <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK49" t="n">
         <v>2</v>
       </c>
       <c r="AL49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="inlineStr">
         <is>
@@ -6929,25 +6929,25 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>1</v>
@@ -6959,37 +6959,37 @@
         <v>0</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V50" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W50" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X50" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="2" t="n">
         <v>0</v>
@@ -6998,40 +6998,40 @@
         <v>1</v>
       </c>
       <c r="AA50" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF50" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ50" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK50" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="2" t="inlineStr">
         <is>
@@ -7053,19 +7053,19 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -7074,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -7086,37 +7086,37 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
         <v>0</v>
@@ -7125,40 +7125,40 @@
         <v>1</v>
       </c>
       <c r="AA51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB51" t="n">
         <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG51" t="n">
         <v>1</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK51" t="n">
         <v>2</v>
       </c>
       <c r="AL51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" t="inlineStr">
         <is>
@@ -7189,25 +7189,25 @@
         <v>0</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>1</v>
@@ -7222,34 +7222,34 @@
         <v>2</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V52" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X52" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="2" t="n">
         <v>0</v>
@@ -7264,34 +7264,34 @@
         <v>1</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF52" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ52" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK52" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="2" t="inlineStr">
         <is>
@@ -7313,19 +7313,19 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -7334,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -7349,34 +7349,34 @@
         <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
         <v>0</v>
@@ -7391,34 +7391,34 @@
         <v>1</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG53" t="n">
         <v>1</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK53" t="n">
         <v>2</v>
       </c>
       <c r="AL53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" t="inlineStr">
         <is>
@@ -7449,25 +7449,25 @@
         <v>0</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="n">
         <v>1</v>
@@ -7482,34 +7482,34 @@
         <v>2</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V54" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W54" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="2" t="n">
         <v>0</v>
@@ -7524,28 +7524,28 @@
         <v>1</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF54" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ54" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK54" s="2" t="n">
         <v>2</v>
@@ -7573,28 +7573,28 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -7609,34 +7609,34 @@
         <v>2</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
@@ -7651,16 +7651,16 @@
         <v>1</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG55" t="n">
         <v>1</v>
@@ -7669,10 +7669,10 @@
         <v>1</v>
       </c>
       <c r="AI55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK55" t="n">
         <v>2</v>
@@ -7706,28 +7706,28 @@
         <v>32</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7742,34 +7742,34 @@
         <v>2</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U56" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V56" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W56" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="2" t="n">
         <v>0</v>
@@ -7784,28 +7784,28 @@
         <v>1</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF56" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI56" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ56" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK56" s="2" t="n">
         <v>2</v>
@@ -7833,28 +7833,28 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -7869,34 +7869,34 @@
         <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
         <v>0</v>
@@ -7911,16 +7911,16 @@
         <v>1</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG57" t="n">
         <v>1</v>
@@ -7929,10 +7929,10 @@
         <v>1</v>
       </c>
       <c r="AI57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK57" t="n">
         <v>2</v>
@@ -7966,28 +7966,28 @@
         <v>33</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -8002,34 +8002,34 @@
         <v>2</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U58" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V58" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X58" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="2" t="n">
         <v>0</v>
@@ -8044,28 +8044,28 @@
         <v>1</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF58" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK58" s="2" t="n">
         <v>2</v>
@@ -8093,28 +8093,28 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -8129,34 +8129,34 @@
         <v>2</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
         <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
         <v>0</v>
@@ -8171,16 +8171,16 @@
         <v>1</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
         <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG59" t="n">
         <v>1</v>
@@ -8189,10 +8189,10 @@
         <v>1</v>
       </c>
       <c r="AI59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK59" t="n">
         <v>2</v>
@@ -8226,28 +8226,28 @@
         <v>34</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="n">
         <v>1</v>
@@ -8262,34 +8262,34 @@
         <v>2</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U60" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V60" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="2" t="n">
         <v>0</v>
@@ -8304,28 +8304,28 @@
         <v>1</v>
       </c>
       <c r="AC60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF60" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK60" s="2" t="n">
         <v>2</v>
@@ -8353,28 +8353,28 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -8389,34 +8389,34 @@
         <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
         <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
         <v>0</v>
@@ -8431,16 +8431,16 @@
         <v>1</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
         <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG61" t="n">
         <v>1</v>
@@ -8449,10 +8449,10 @@
         <v>1</v>
       </c>
       <c r="AI61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK61" t="n">
         <v>2</v>
@@ -8486,28 +8486,28 @@
         <v>35</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>1</v>
@@ -8522,34 +8522,34 @@
         <v>2</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U62" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V62" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X62" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="2" t="n">
         <v>0</v>
@@ -8564,28 +8564,28 @@
         <v>1</v>
       </c>
       <c r="AC62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF62" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AH62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI62" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK62" s="2" t="n">
         <v>2</v>
@@ -8613,28 +8613,28 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -8649,34 +8649,34 @@
         <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
         <v>1</v>
       </c>
       <c r="U63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="n">
         <v>0</v>
@@ -8691,16 +8691,16 @@
         <v>1</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG63" t="n">
         <v>2</v>
@@ -8709,10 +8709,10 @@
         <v>1</v>
       </c>
       <c r="AI63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK63" t="n">
         <v>2</v>
@@ -8746,28 +8746,28 @@
         <v>36</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" s="2" t="n">
         <v>1</v>
@@ -8782,34 +8782,34 @@
         <v>2</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U64" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V64" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X64" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="2" t="n">
         <v>0</v>
@@ -8824,28 +8824,28 @@
         <v>1</v>
       </c>
       <c r="AC64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF64" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AH64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI64" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK64" s="2" t="n">
         <v>2</v>
@@ -8873,34 +8873,34 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -8909,34 +8909,34 @@
         <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" t="n">
         <v>1</v>
       </c>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="n">
         <v>0</v>
@@ -8951,28 +8951,28 @@
         <v>1</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG65" t="n">
         <v>2</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK65" t="n">
         <v>2</v>
@@ -9006,28 +9006,28 @@
         <v>37</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" s="2" t="n">
         <v>1</v>
@@ -9042,34 +9042,34 @@
         <v>2</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U66" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V66" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X66" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="2" t="n">
         <v>0</v>
@@ -9084,34 +9084,34 @@
         <v>1</v>
       </c>
       <c r="AC66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF66" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AH66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI66" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK66" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM66" s="2" t="inlineStr">
         <is>
@@ -9133,34 +9133,34 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -9169,34 +9169,34 @@
         <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
         <v>1</v>
       </c>
       <c r="U67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="n">
         <v>0</v>
@@ -9211,34 +9211,34 @@
         <v>1</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG67" t="n">
         <v>2</v>
       </c>
       <c r="AH67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK67" t="n">
         <v>2</v>
       </c>
       <c r="AL67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
@@ -9266,10 +9266,10 @@
         <v>38</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>2</v>
@@ -9278,16 +9278,16 @@
         <v>1</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" s="2" t="n">
         <v>1</v>
@@ -9302,34 +9302,34 @@
         <v>2</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U68" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V68" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X68" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="2" t="n">
         <v>0</v>
@@ -9344,34 +9344,34 @@
         <v>1</v>
       </c>
       <c r="AC68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF68" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AH68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI68" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK68" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM68" s="2" t="inlineStr">
         <is>
@@ -9393,10 +9393,10 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -9405,22 +9405,22 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -9429,34 +9429,34 @@
         <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
         <v>1</v>
       </c>
       <c r="U69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
         <v>0</v>
@@ -9471,34 +9471,34 @@
         <v>1</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG69" t="n">
         <v>2</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK69" t="n">
         <v>2</v>
       </c>
       <c r="AL69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM69" t="inlineStr">
         <is>
@@ -9526,10 +9526,10 @@
         <v>39</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>2</v>
@@ -9538,16 +9538,16 @@
         <v>1</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" s="2" t="n">
         <v>1</v>
@@ -9562,34 +9562,34 @@
         <v>2</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U70" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V70" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W70" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X70" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="2" t="n">
         <v>0</v>
@@ -9604,34 +9604,34 @@
         <v>1</v>
       </c>
       <c r="AC70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF70" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG70" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AH70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI70" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ70" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK70" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL70" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM70" s="2" t="inlineStr">
         <is>
@@ -9653,10 +9653,10 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
@@ -9665,22 +9665,22 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -9689,34 +9689,34 @@
         <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
         <v>1</v>
       </c>
       <c r="U71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y71" t="n">
         <v>0</v>
@@ -9731,34 +9731,34 @@
         <v>1</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG71" t="n">
         <v>2</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK71" t="n">
         <v>2</v>
       </c>
       <c r="AL71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM71" t="inlineStr">
         <is>
@@ -9786,28 +9786,28 @@
         <v>40</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" s="2" t="n">
         <v>1</v>
@@ -9822,34 +9822,34 @@
         <v>2</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U72" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V72" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W72" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X72" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="2" t="n">
         <v>0</v>
@@ -9864,34 +9864,34 @@
         <v>1</v>
       </c>
       <c r="AC72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF72" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AH72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI72" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ72" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK72" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL72" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM72" s="2" t="inlineStr">
         <is>
@@ -9913,34 +9913,34 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -9949,34 +9949,34 @@
         <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" t="n">
         <v>1</v>
       </c>
       <c r="U73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
         <v>0</v>
@@ -9991,34 +9991,34 @@
         <v>1</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG73" t="n">
         <v>2</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK73" t="n">
         <v>2</v>
       </c>
       <c r="AL73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM73" t="inlineStr">
         <is>
@@ -10046,112 +10046,112 @@
         <v>41</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL74" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="I74" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J74" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U74" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X74" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA74" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF74" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG74" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK74" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL74" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AM74" s="2" t="inlineStr">
         <is>
@@ -10173,112 +10173,112 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3</v>
+      </c>
+      <c r="W75" t="n">
+        <v>2</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL75" t="n">
         <v>4</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1</v>
-      </c>
-      <c r="U75" t="n">
-        <v>3</v>
-      </c>
-      <c r="V75" t="n">
-        <v>1</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1</v>
-      </c>
-      <c r="X75" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>1</v>
       </c>
       <c r="AM75" t="inlineStr">
         <is>
@@ -10306,112 +10306,112 @@
         <v>42</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI76" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL76" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="I76" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U76" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X76" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA76" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG76" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK76" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL76" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AM76" s="2" t="inlineStr">
         <is>
@@ -10439,112 +10439,112 @@
         <v>43</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI77" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL77" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="I77" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U77" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X77" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA77" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG77" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK77" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL77" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AM77" s="2" t="inlineStr">
         <is>
@@ -10572,112 +10572,112 @@
         <v>44</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL78" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="I78" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J78" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U78" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X78" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA78" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG78" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK78" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL78" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AM78" s="2" t="inlineStr">
         <is>
